--- a/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
+++ b/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B51" s="65">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B53" s="65">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
